--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Denver_Nuggets__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Denver_Nuggets__.xlsx
@@ -588,79 +588,79 @@
         <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>737</v>
+        <v>780</v>
       </c>
       <c r="G2" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H2" t="n">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="I2" t="n">
-        <v>0.515</v>
+        <v>0.512</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L2" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="M2" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N2" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O2" t="n">
-        <v>0.579</v>
+        <v>0.58</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R2" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S2" t="n">
-        <v>0.727</v>
+        <v>0.729</v>
       </c>
       <c r="T2" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U2" t="n">
         <v>94</v>
       </c>
       <c r="V2" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="n">
         <v>37</v>
       </c>
       <c r="AA2" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB2" t="n">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>702</v>
+        <v>744</v>
       </c>
       <c r="G3" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H3" t="n">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="I3" t="n">
-        <v>0.446</v>
+        <v>0.442</v>
       </c>
       <c r="J3" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K3" t="n">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L3" t="n">
-        <v>0.381</v>
+        <v>0.39</v>
       </c>
       <c r="M3" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N3" t="n">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="O3" t="n">
-        <v>0.503</v>
+        <v>0.488</v>
       </c>
       <c r="P3" t="n">
-        <v>0.536</v>
+        <v>0.534</v>
       </c>
       <c r="Q3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R3" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S3" t="n">
-        <v>0.71</v>
+        <v>0.727</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
       </c>
       <c r="U3" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="V3" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="W3" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB3" t="n">
-        <v>337</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4">
@@ -764,67 +764,67 @@
         <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>686</v>
+        <v>722</v>
       </c>
       <c r="G4" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H4" t="n">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="I4" t="n">
-        <v>0.482</v>
+        <v>0.475</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L4" t="n">
         <v>0.337</v>
       </c>
       <c r="M4" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N4" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="P4" t="n">
-        <v>0.542</v>
+        <v>0.536</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="T4" t="n">
         <v>6</v>
       </c>
       <c r="U4" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V4" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="W4" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
         <v>3</v>
@@ -836,7 +836,7 @@
         <v>37</v>
       </c>
       <c r="AB4" t="n">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5">
@@ -852,79 +852,79 @@
         <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="G5" t="n">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="H5" t="n">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="I5" t="n">
-        <v>0.577</v>
+        <v>0.588</v>
       </c>
       <c r="J5" t="n">
         <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L5" t="n">
-        <v>0.375</v>
+        <v>0.361</v>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="N5" t="n">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="O5" t="n">
-        <v>0.647</v>
+        <v>0.663</v>
       </c>
       <c r="P5" t="n">
-        <v>0.625</v>
+        <v>0.633</v>
       </c>
       <c r="Q5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R5" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="S5" t="n">
-        <v>0.753</v>
+        <v>0.735</v>
       </c>
       <c r="T5" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U5" t="n">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="V5" t="n">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="W5" t="n">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
         <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AA5" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB5" t="n">
-        <v>460</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6">
@@ -940,43 +940,43 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="G6" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H6" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I6" t="n">
-        <v>0.473</v>
+        <v>0.48</v>
       </c>
       <c r="J6" t="n">
         <v>19</v>
       </c>
       <c r="K6" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="n">
-        <v>0.328</v>
+        <v>0.322</v>
       </c>
       <c r="M6" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N6" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O6" t="n">
-        <v>0.551</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="P6" t="n">
-        <v>0.53</v>
+        <v>0.535</v>
       </c>
       <c r="Q6" t="n">
         <v>51</v>
@@ -991,28 +991,28 @@
         <v>10</v>
       </c>
       <c r="U6" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V6" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="W6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X6" t="n">
         <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
         <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AB6" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7">
@@ -1028,43 +1028,43 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="G7" t="n">
+        <v>45</v>
+      </c>
+      <c r="H7" t="n">
+        <v>110</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="J7" t="n">
+        <v>25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>69</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="M7" t="n">
+        <v>20</v>
+      </c>
+      <c r="N7" t="n">
         <v>41</v>
       </c>
-      <c r="H7" t="n">
-        <v>101</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.406</v>
-      </c>
-      <c r="J7" t="n">
-        <v>24</v>
-      </c>
-      <c r="K7" t="n">
-        <v>63</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="M7" t="n">
-        <v>17</v>
-      </c>
-      <c r="N7" t="n">
-        <v>38</v>
-      </c>
       <c r="O7" t="n">
-        <v>0.447</v>
+        <v>0.488</v>
       </c>
       <c r="P7" t="n">
-        <v>0.525</v>
+        <v>0.523</v>
       </c>
       <c r="Q7" t="n">
         <v>17</v>
@@ -1079,16 +1079,16 @@
         <v>8</v>
       </c>
       <c r="U7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V7" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W7" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
         <v>5</v>
@@ -1097,10 +1097,10 @@
         <v>25</v>
       </c>
       <c r="AA7" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AB7" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8">
@@ -1109,86 +1109,86 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PJ Dozier</t>
+          <t>JaMychal Green</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>341</v>
+      </c>
+      <c r="G8" t="n">
+        <v>49</v>
+      </c>
+      <c r="H8" t="n">
+        <v>119</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11</v>
+      </c>
+      <c r="K8" t="n">
+        <v>54</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="M8" t="n">
+        <v>38</v>
+      </c>
+      <c r="N8" t="n">
+        <v>65</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>17</v>
+      </c>
+      <c r="R8" t="n">
+        <v>22</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="T8" t="n">
+        <v>22</v>
+      </c>
+      <c r="U8" t="n">
+        <v>58</v>
+      </c>
+      <c r="V8" t="n">
+        <v>80</v>
+      </c>
+      <c r="W8" t="n">
+        <v>20</v>
+      </c>
+      <c r="X8" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
         <v>25</v>
       </c>
-      <c r="D8" t="n">
-        <v>18</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>340</v>
-      </c>
-      <c r="G8" t="n">
-        <v>36</v>
-      </c>
-      <c r="H8" t="n">
-        <v>99</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="J8" t="n">
-        <v>15</v>
-      </c>
-      <c r="K8" t="n">
-        <v>48</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="M8" t="n">
-        <v>21</v>
-      </c>
-      <c r="N8" t="n">
-        <v>51</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>10</v>
-      </c>
-      <c r="R8" t="n">
-        <v>13</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="T8" t="n">
-        <v>14</v>
-      </c>
-      <c r="U8" t="n">
-        <v>49</v>
-      </c>
-      <c r="V8" t="n">
-        <v>63</v>
-      </c>
-      <c r="W8" t="n">
-        <v>29</v>
-      </c>
-      <c r="X8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13</v>
-      </c>
       <c r="AA8" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="AB8" t="n">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -1197,86 +1197,86 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JaMychal Green</t>
+          <t>PJ Dozier</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="G9" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="I9" t="n">
-        <v>0.407</v>
+        <v>0.364</v>
       </c>
       <c r="J9" t="n">
+        <v>15</v>
+      </c>
+      <c r="K9" t="n">
+        <v>48</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="M9" t="n">
+        <v>21</v>
+      </c>
+      <c r="N9" t="n">
+        <v>51</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="Q9" t="n">
         <v>10</v>
       </c>
-      <c r="K9" t="n">
-        <v>51</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="M9" t="n">
-        <v>36</v>
-      </c>
-      <c r="N9" t="n">
-        <v>62</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.581</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.451</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
+        <v>13</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="T9" t="n">
         <v>14</v>
       </c>
-      <c r="R9" t="n">
-        <v>18</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="T9" t="n">
-        <v>20</v>
-      </c>
       <c r="U9" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="V9" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="W9" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="AB9" t="n">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -1468,79 +1468,79 @@
         <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="G12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H12" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I12" t="n">
-        <v>0.385</v>
+        <v>0.382</v>
       </c>
       <c r="J12" t="n">
         <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L12" t="n">
-        <v>0.352</v>
+        <v>0.342</v>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N12" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O12" t="n">
-        <v>0.455</v>
+        <v>0.459</v>
       </c>
       <c r="P12" t="n">
-        <v>0.505</v>
+        <v>0.495</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R12" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.952</v>
       </c>
       <c r="T12" t="n">
         <v>4</v>
       </c>
       <c r="U12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W12" t="n">
         <v>26</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
         <v>3</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA12" t="n">
         <v>26</v>
       </c>
       <c r="AB12" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -1556,13 +1556,13 @@
         <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G13" t="n">
         <v>29</v>
@@ -1613,7 +1613,7 @@
         <v>40</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>5</v>
       </c>
       <c r="AA13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB13" t="n">
         <v>85</v>
@@ -1820,22 +1820,22 @@
         <v>26</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1869,28 +1869,28 @@
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W16" t="n">
         <v>5</v>
       </c>
       <c r="X16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y16" t="n">
         <v>1</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB16" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2072,77 +2072,77 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>5520</v>
+        <v>5785</v>
       </c>
       <c r="G19" t="n">
-        <v>913</v>
+        <v>958</v>
       </c>
       <c r="H19" t="n">
-        <v>1981</v>
+        <v>2069</v>
       </c>
       <c r="I19" t="n">
-        <v>0.461</v>
+        <v>0.463</v>
       </c>
       <c r="J19" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="K19" t="n">
-        <v>826</v>
+        <v>858</v>
       </c>
       <c r="L19" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="M19" t="n">
-        <v>632</v>
+        <v>668</v>
       </c>
       <c r="N19" t="n">
-        <v>1155</v>
+        <v>1211</v>
       </c>
       <c r="O19" t="n">
-        <v>0.547</v>
+        <v>0.552</v>
       </c>
       <c r="P19" t="n">
-        <v>0.532</v>
+        <v>0.533</v>
       </c>
       <c r="Q19" t="n">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="R19" t="n">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="S19" t="n">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="T19" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="U19" t="n">
-        <v>782</v>
+        <v>810</v>
       </c>
       <c r="V19" t="n">
-        <v>985</v>
+        <v>1018</v>
       </c>
       <c r="W19" t="n">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="X19" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="Y19" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Z19" t="n">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AA19" t="n">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="AB19" t="n">
-        <v>2386</v>
+        <v>2506</v>
       </c>
     </row>
   </sheetData>
